--- a/etc/order.xlsx
+++ b/etc/order.xlsx
@@ -880,7 +880,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/etc/order.xlsx
+++ b/etc/order.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>ZONE</t>
   </si>
@@ -880,7 +880,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,16 +941,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CiFvIuqvK6ZFMGHGgBL+9YFAIIZtAB3XvTVkCyl53QG9DXj1LCjtgQZqgdaNk38KAYlufGk6tRoL48hsdY8x2A==" saltValue="C3m42DCsSA0mz7+sdJN1Mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="L3whFnalcNNxZHwEWoW1cPM88QIMx3vmyAQ2bNYJmpp1EbQYcyIM+ebJddFJjm9zvYp3CgciEGqZxiQNMA5R6g==" saltValue="bpSqoYIRj0I0tozLPMRxsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -995,7 +988,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QNiBB/frUXwBNcYBopnCVvkKMEDJ6Z5+1Y84GenS0Z+7DbMqkJitdp3ZaNjg4npNlOSasM5UFPYoQyZuCpdYIQ==" saltValue="I8VN6q8yd6l7Z7ugWEnzxA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xlHWkHnhCImo7LpzcrTF1ZNNEt0ATDbdRqTwTrDuoObRuWs5pPNghWg+RcDaH0bxHv+usuUebTeorjCQfBqm5A==" saltValue="HjKz/hPxwq7b6GesvDoufg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/etc/order.xlsx
+++ b/etc/order.xlsx
@@ -877,7 +877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -941,9 +941,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L3whFnalcNNxZHwEWoW1cPM88QIMx3vmyAQ2bNYJmpp1EbQYcyIM+ebJddFJjm9zvYp3CgciEGqZxiQNMA5R6g==" saltValue="bpSqoYIRj0I0tozLPMRxsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S3bVokPHSBvupdA2tDb+MlEd2iZiJxYjefCIL1XQmJZhXQdnBnu+9ACRc9NSKrAiPz5X8nCRuGJPkWtCHKhISQ==" saltValue="yt6WQOgWP8wMHrLYImNsPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
@@ -953,7 +952,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B8</xm:sqref>
+          <xm:sqref>B3:B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>

--- a/etc/order.xlsx
+++ b/etc/order.xlsx
@@ -516,12 +516,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -885,11 +887,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -942,7 +944,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="S3bVokPHSBvupdA2tDb+MlEd2iZiJxYjefCIL1XQmJZhXQdnBnu+9ACRc9NSKrAiPz5X8nCRuGJPkWtCHKhISQ==" saltValue="yt6WQOgWP8wMHrLYImNsPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="H2wCz2Qc+CI55S/e9bVc8XKSMVH9Qm328MwbjEC32ToOAm2IQwWWhiEmAdEgUlc6g4utOYDSkl0XlDPrJvu3Ew==" saltValue="afjTV6GP6YlkUSd3iEtFew==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
